--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\bldgs\SYDEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\bldgs\SYDEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C406C86E-E490-4782-9987-609D1E9749B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="17025" windowHeight="9990" tabRatio="670" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="17025" windowHeight="9990" tabRatio="670"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDEQ - Combined" sheetId="13" r:id="rId2"/>
     <sheet name="SYDEC" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -184,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,16 +392,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Header: top rows" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="1"/>
+    <cellStyle name="Footnotes: top row" xfId="6"/>
+    <cellStyle name="Header: bottom row" xfId="2"/>
+    <cellStyle name="Header: top rows" xfId="8"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="7"/>
+    <cellStyle name="Parent row" xfId="4"/>
+    <cellStyle name="Table title" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -493,23 +492,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -545,23 +527,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -737,11 +702,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -921,7 +886,7 @@
     </row>
     <row r="28" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="6">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -940,9 +905,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{EE76283F-3A6B-464D-BAE9-26A3AC9FD6CB}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{9678EEA7-499E-47DC-944B-7B9E84CD6EC5}"/>
-    <hyperlink ref="E10" r:id="rId3" xr:uid="{0C837592-FEE6-4EC4-86D1-0B588FEB3580}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="E10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
@@ -950,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EC69D9-C4B8-4300-9807-88214C44DA5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ56"/>
   <sheetViews>
     <sheetView topLeftCell="A51" workbookViewId="0">
@@ -6586,13 +6551,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -6706,15 +6671,15 @@
       </c>
       <c r="B7" s="8">
         <f>SUMIFS(INDEX('BDEQ - Combined'!$C$3:$AJ$56,,MATCH(About!$A$28,'BDEQ - Combined'!$C$2:$AJ$2,0)),'BDEQ - Combined'!$A$3:$A$56,SYDEC!B$1,'BDEQ - Combined'!$B$3:$B$56,SYDEC!$A7)</f>
-        <v>30.051265405681704</v>
+        <v>37.032259419234492</v>
       </c>
       <c r="C7" s="8">
         <f>SUMIFS(INDEX('BDEQ - Combined'!$C$3:$AJ$56,,MATCH(About!$A$28,'BDEQ - Combined'!$C$2:$AJ$2,0)),'BDEQ - Combined'!$A$3:$A$56,SYDEC!C$1,'BDEQ - Combined'!$B$3:$B$56,SYDEC!$A7)</f>
-        <v>61.142101844954055</v>
+        <v>75.186708517890111</v>
       </c>
       <c r="D7" s="8">
         <f>SUMIFS(INDEX('BDEQ - Combined'!$C$3:$AJ$56,,MATCH(About!$A$28,'BDEQ - Combined'!$C$2:$AJ$2,0)),'BDEQ - Combined'!$A$3:$A$56,SYDEC!D$1,'BDEQ - Combined'!$B$3:$B$56,SYDEC!$A7)</f>
-        <v>273.58010175191794</v>
+        <v>336.65690381133118</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -6782,7 +6747,7 @@
       </c>
       <c r="D11" s="8">
         <f>SUMIFS(INDEX('BDEQ - Combined'!$C$3:$AJ$56,,MATCH(About!$A$28,'BDEQ - Combined'!$C$2:$AJ$2,0)),'BDEQ - Combined'!$A$3:$A$56,SYDEC!D$1,'BDEQ - Combined'!$B$3:$B$56,SYDEC!$A11)</f>
-        <v>19252.513446007924</v>
+        <v>20372.361501590603</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">

--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\bldgs\SYDEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\Internship\eps-india-3.1.3.4\InputData - Low GDP\bldgs\SYDEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EEAD0A-3872-431C-B022-B253DBA0A19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="17025" windowHeight="9990" tabRatio="670"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDEQ - Combined" sheetId="13" r:id="rId2"/>
     <sheet name="SYDEC" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -183,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,16 +394,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="1"/>
-    <cellStyle name="Footnotes: top row" xfId="6"/>
-    <cellStyle name="Header: bottom row" xfId="2"/>
-    <cellStyle name="Header: top rows" xfId="8"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Header: top rows" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="7"/>
-    <cellStyle name="Parent row" xfId="4"/>
-    <cellStyle name="Table title" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,6 +494,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -527,6 +546,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -702,24 +738,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -730,7 +766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>29</v>
@@ -739,14 +775,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>2015</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>31</v>
@@ -755,7 +791,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="11" t="s">
         <v>33</v>
@@ -764,7 +800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>34</v>
@@ -773,13 +809,13 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="E9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
         <v>35</v>
@@ -788,7 +824,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>36</v>
@@ -797,117 +833,117 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
-    <hyperlink ref="E10" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
@@ -915,25 +951,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.9296875" customWidth="1"/>
-    <col min="2" max="2" width="30.06640625" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>18</v>
@@ -1041,7 +1077,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -1151,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -1261,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -1371,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -1481,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -1591,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -1599,109 +1635,109 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>30.051265405681704</v>
+        <v>28.17925077641803</v>
       </c>
       <c r="D8">
-        <v>37.032259419234492</v>
+        <v>34.692241132660229</v>
       </c>
       <c r="E8">
-        <v>85.485932674231435</v>
+        <v>75.53415235349803</v>
       </c>
       <c r="F8">
-        <v>133.93960592921417</v>
+        <v>116.37606357433583</v>
       </c>
       <c r="G8">
-        <v>182.39327918421111</v>
+        <v>157.21797479517363</v>
       </c>
       <c r="H8">
-        <v>230.84695243919384</v>
+        <v>198.05988601599722</v>
       </c>
       <c r="I8">
-        <v>279.30062569419078</v>
+        <v>238.90179723683502</v>
       </c>
       <c r="J8">
-        <v>341.9200689749573</v>
+        <v>249.08587064201271</v>
       </c>
       <c r="K8">
-        <v>404.53951225573803</v>
+        <v>259.26994404718687</v>
       </c>
       <c r="L8">
-        <v>467.15895553651876</v>
+        <v>269.4540174523645</v>
       </c>
       <c r="M8">
-        <v>529.77839881729949</v>
+        <v>279.63809085754224</v>
       </c>
       <c r="N8">
-        <v>592.39784209808022</v>
+        <v>289.82216426271634</v>
       </c>
       <c r="O8">
-        <v>706.96698811855185</v>
+        <v>345.54817574520769</v>
       </c>
       <c r="P8">
-        <v>821.53613413902349</v>
+        <v>401.27418722768482</v>
       </c>
       <c r="Q8">
-        <v>936.10528015949512</v>
+        <v>457.00019871016195</v>
       </c>
       <c r="R8">
-        <v>1050.6744261799668</v>
+        <v>512.7262101926533</v>
       </c>
       <c r="S8">
-        <v>1165.24357220041</v>
+        <v>568.45222167513043</v>
       </c>
       <c r="T8">
-        <v>1330.7300527478105</v>
+        <v>653.86585014204002</v>
       </c>
       <c r="U8">
-        <v>1496.2165332951827</v>
+        <v>739.2794786089496</v>
       </c>
       <c r="V8">
-        <v>1661.7030138425548</v>
+        <v>824.69310707588761</v>
       </c>
       <c r="W8">
-        <v>1827.1894943898701</v>
+        <v>910.1067355427972</v>
       </c>
       <c r="X8">
-        <v>1992.6759749372422</v>
+        <v>995.52036400970678</v>
       </c>
       <c r="Y8">
-        <v>2299.6688579972897</v>
+        <v>1084.4738557727851</v>
       </c>
       <c r="Z8">
-        <v>2606.6617410574509</v>
+        <v>1173.427347535835</v>
       </c>
       <c r="AA8">
-        <v>2913.6546241174983</v>
+        <v>1262.3808392988849</v>
       </c>
       <c r="AB8">
-        <v>3220.6475071775458</v>
+        <v>1351.3343310619632</v>
       </c>
       <c r="AC8">
-        <v>3527.6403902377069</v>
+        <v>1440.2878228250131</v>
       </c>
       <c r="AD8">
-        <v>3860.5011728051295</v>
+        <v>1503.2485753952187</v>
       </c>
       <c r="AE8">
-        <v>4193.3619553725521</v>
+        <v>1566.2093279654243</v>
       </c>
       <c r="AF8">
-        <v>4526.222737939861</v>
+        <v>1629.1700805356299</v>
       </c>
       <c r="AG8">
-        <v>4859.0835205072835</v>
+        <v>1692.1308331058071</v>
       </c>
       <c r="AH8">
-        <v>5191.9443030745924</v>
+        <v>1755.0915856760128</v>
       </c>
       <c r="AI8">
-        <v>5524.805085642015</v>
+        <v>1818.0523382462184</v>
       </c>
       <c r="AJ8">
-        <v>5857.6658682094376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+        <v>1881.013090816424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -1811,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1921,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -2031,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -2141,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -2251,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -2361,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2471,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -2581,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -2691,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2801,12 +2837,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -2913,7 +2949,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
@@ -3023,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
@@ -3133,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>21</v>
       </c>
@@ -3243,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>21</v>
       </c>
@@ -3353,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>21</v>
       </c>
@@ -3463,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>21</v>
       </c>
@@ -3471,109 +3507,109 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>61.142101844954055</v>
+        <v>57.341344870390998</v>
       </c>
       <c r="D27">
-        <v>75.186708517890111</v>
+        <v>70.435762299638327</v>
       </c>
       <c r="E27">
-        <v>159.45625595003321</v>
+        <v>141.29147107945528</v>
       </c>
       <c r="F27">
-        <v>243.72580338214789</v>
+        <v>212.14717985930065</v>
       </c>
       <c r="G27">
-        <v>327.99535081429099</v>
+        <v>283.0028886391176</v>
       </c>
       <c r="H27">
-        <v>412.26489824643409</v>
+        <v>353.85859741896297</v>
       </c>
       <c r="I27">
-        <v>496.53444567857719</v>
+        <v>424.71430619877992</v>
       </c>
       <c r="J27">
-        <v>582.54175330174007</v>
+        <v>430.433763010468</v>
       </c>
       <c r="K27">
-        <v>668.54906092493138</v>
+        <v>436.15321982211873</v>
       </c>
       <c r="L27">
-        <v>754.55636854809427</v>
+        <v>441.87267663376952</v>
       </c>
       <c r="M27">
-        <v>840.56367617128558</v>
+        <v>447.59213344542025</v>
       </c>
       <c r="N27">
-        <v>926.57098379444847</v>
+        <v>453.31159025707103</v>
       </c>
       <c r="O27">
-        <v>1063.0859641195229</v>
+        <v>519.65036200166992</v>
       </c>
       <c r="P27">
-        <v>1199.600944444569</v>
+        <v>585.98913374623862</v>
       </c>
       <c r="Q27">
-        <v>1336.1159247695582</v>
+        <v>652.32790549080732</v>
       </c>
       <c r="R27">
-        <v>1472.6309050946043</v>
+        <v>718.66667723537603</v>
       </c>
       <c r="S27">
-        <v>1609.1458854196503</v>
+        <v>785.00544897994473</v>
       </c>
       <c r="T27">
-        <v>1774.4152799870676</v>
+        <v>871.35378149741882</v>
       </c>
       <c r="U27">
-        <v>1939.6846745544281</v>
+        <v>957.70211401492134</v>
       </c>
       <c r="V27">
-        <v>2104.9540691218454</v>
+        <v>1044.0504465324238</v>
       </c>
       <c r="W27">
-        <v>2270.2234636892626</v>
+        <v>1130.3987790499264</v>
       </c>
       <c r="X27">
-        <v>2435.4928582566231</v>
+        <v>1216.7471115674289</v>
       </c>
       <c r="Y27">
-        <v>2712.7163711567164</v>
+        <v>1285.4600508660212</v>
       </c>
       <c r="Z27">
-        <v>2989.9398840568665</v>
+        <v>1354.1729901646136</v>
       </c>
       <c r="AA27">
-        <v>3267.1633969570166</v>
+        <v>1422.8859294632343</v>
       </c>
       <c r="AB27">
-        <v>3544.3869098572804</v>
+        <v>1491.5988687618267</v>
       </c>
       <c r="AC27">
-        <v>3821.6104227574306</v>
+        <v>1560.3118080604474</v>
       </c>
       <c r="AD27">
-        <v>4054.9560670320943</v>
+        <v>1585.5023393821668</v>
       </c>
       <c r="AE27">
-        <v>4288.3017113067017</v>
+        <v>1610.6928707039003</v>
       </c>
       <c r="AF27">
-        <v>4521.6473555812518</v>
+        <v>1635.8834020256409</v>
       </c>
       <c r="AG27">
-        <v>4754.9929998558582</v>
+        <v>1661.0739333473746</v>
       </c>
       <c r="AH27">
-        <v>4988.3386441304647</v>
+        <v>1686.2644646691151</v>
       </c>
       <c r="AI27">
-        <v>5221.684288405072</v>
+        <v>1711.4549959908486</v>
       </c>
       <c r="AJ27">
-        <v>5455.0299326796794</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.45">
+        <v>1736.6455273125823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>21</v>
       </c>
@@ -3683,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>21</v>
       </c>
@@ -3793,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>21</v>
       </c>
@@ -3903,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>21</v>
       </c>
@@ -4013,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>21</v>
       </c>
@@ -4123,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
@@ -4233,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>21</v>
       </c>
@@ -4343,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>21</v>
       </c>
@@ -4453,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>21</v>
       </c>
@@ -4563,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>21</v>
       </c>
@@ -4673,12 +4709,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>18</v>
       </c>
@@ -4785,7 +4821,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>22</v>
       </c>
@@ -4895,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>22</v>
       </c>
@@ -5005,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>22</v>
       </c>
@@ -5115,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>22</v>
       </c>
@@ -5225,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>22</v>
       </c>
@@ -5335,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>22</v>
       </c>
@@ -5343,109 +5379,109 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>273.58010175191794</v>
+        <v>256.56178694043774</v>
       </c>
       <c r="D46">
-        <v>336.65690381133118</v>
+        <v>315.38401029695251</v>
       </c>
       <c r="E46">
-        <v>734.82656587270867</v>
+        <v>650.47687029891677</v>
       </c>
       <c r="F46">
-        <v>1132.9962279340862</v>
+        <v>985.56973030099471</v>
       </c>
       <c r="G46">
-        <v>1531.1658899954637</v>
+        <v>1320.662590302959</v>
       </c>
       <c r="H46">
-        <v>1929.3355520568412</v>
+        <v>1655.7554503049232</v>
       </c>
       <c r="I46">
-        <v>2327.5052141182186</v>
+        <v>1990.8483103070012</v>
       </c>
       <c r="J46">
-        <v>2773.3854668300637</v>
+        <v>2038.558900957426</v>
       </c>
       <c r="K46">
-        <v>3219.2657195419088</v>
+        <v>2086.2694916079081</v>
       </c>
       <c r="L46">
-        <v>3665.1459722537538</v>
+        <v>2133.9800822583898</v>
       </c>
       <c r="M46">
-        <v>4111.0262249657126</v>
+        <v>2181.6906729088714</v>
       </c>
       <c r="N46">
-        <v>4556.9064776775576</v>
+        <v>2229.4012635593531</v>
       </c>
       <c r="O46">
-        <v>5310.158856713997</v>
+        <v>2595.5956132405618</v>
       </c>
       <c r="P46">
-        <v>6063.4112357506638</v>
+        <v>2961.7899629216708</v>
       </c>
       <c r="Q46">
-        <v>6816.6636147871031</v>
+        <v>3327.9843126027799</v>
       </c>
       <c r="R46">
-        <v>7569.9159938235425</v>
+        <v>3694.1786622840027</v>
       </c>
       <c r="S46">
-        <v>8323.1683728599819</v>
+        <v>4060.3730119651118</v>
       </c>
       <c r="T46">
-        <v>9315.4359982045207</v>
+        <v>4575.658894918206</v>
       </c>
       <c r="U46">
-        <v>10307.703623548832</v>
+        <v>5090.9447778715275</v>
       </c>
       <c r="V46">
-        <v>11299.971248892916</v>
+        <v>5606.2306608246217</v>
       </c>
       <c r="W46">
-        <v>12292.238874237228</v>
+        <v>6121.5165437779433</v>
       </c>
       <c r="X46">
-        <v>13284.506499581539</v>
+        <v>6636.8024267312649</v>
       </c>
       <c r="Y46">
-        <v>15037.155687462018</v>
+        <v>7109.8017199162769</v>
       </c>
       <c r="Z46">
-        <v>16789.804875342725</v>
+        <v>7582.8010131012888</v>
       </c>
       <c r="AA46">
-        <v>18542.454063223886</v>
+        <v>8055.8003062863008</v>
       </c>
       <c r="AB46">
-        <v>20295.103251104592</v>
+        <v>8528.7995994713128</v>
       </c>
       <c r="AC46">
-        <v>22047.752438985299</v>
+        <v>9001.7988926563248</v>
       </c>
       <c r="AD46">
-        <v>23746.371719510989</v>
+        <v>9266.2527443321778</v>
       </c>
       <c r="AE46">
-        <v>25444.991000037135</v>
+        <v>9530.7065960079162</v>
       </c>
       <c r="AF46">
-        <v>27143.610280562825</v>
+        <v>9795.1604476837711</v>
       </c>
       <c r="AG46">
-        <v>28842.229561088971</v>
+        <v>10059.614299359622</v>
       </c>
       <c r="AH46">
-        <v>30540.848841614661</v>
+        <v>10324.068151035362</v>
       </c>
       <c r="AI46">
-        <v>32239.468122140806</v>
+        <v>10588.522002711215</v>
       </c>
       <c r="AJ46">
-        <v>33938.087402666948</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.45">
+        <v>10852.975854387068</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>22</v>
       </c>
@@ -5555,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>22</v>
       </c>
@@ -5665,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>22</v>
       </c>
@@ -5775,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>22</v>
       </c>
@@ -5783,79 +5819,79 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>19252.513446007924</v>
+        <v>18424.505025812778</v>
       </c>
       <c r="D50">
-        <v>20372.361501590603</v>
+        <v>19247.058613296758</v>
       </c>
       <c r="E50">
-        <v>21492.209557173283</v>
+        <v>20069.612200780739</v>
       </c>
       <c r="F50">
-        <v>22612.057612755962</v>
+        <v>20892.165788264494</v>
       </c>
       <c r="G50">
-        <v>23731.905668338641</v>
+        <v>21714.719375748471</v>
       </c>
       <c r="H50">
-        <v>24851.753723921775</v>
+        <v>22537.272963232455</v>
       </c>
       <c r="I50">
-        <v>25417.882251394985</v>
+        <v>22722.369142467698</v>
       </c>
       <c r="J50">
-        <v>25984.010778868425</v>
+        <v>22907.465321703115</v>
       </c>
       <c r="K50">
-        <v>26550.139306342091</v>
+        <v>23092.561500938587</v>
       </c>
       <c r="L50">
-        <v>27116.267833815527</v>
+        <v>23277.657680174001</v>
       </c>
       <c r="M50">
-        <v>27682.396361288964</v>
+        <v>23462.753859409419</v>
       </c>
       <c r="N50">
-        <v>27415.48646335832</v>
+        <v>22918.550305111465</v>
       </c>
       <c r="O50">
-        <v>27148.576565427789</v>
+        <v>22374.346750813631</v>
       </c>
       <c r="P50">
-        <v>26881.666667497258</v>
+        <v>21830.143196515564</v>
       </c>
       <c r="Q50">
-        <v>26614.756769566724</v>
+        <v>21285.939642217727</v>
       </c>
       <c r="R50">
-        <v>26347.846871636193</v>
+        <v>20741.736087919664</v>
       </c>
       <c r="S50">
-        <v>24917.095913650883</v>
+        <v>19449.608047051242</v>
       </c>
       <c r="T50">
-        <v>23486.344955665118</v>
+        <v>18157.480006182595</v>
       </c>
       <c r="U50">
-        <v>22055.593997679807</v>
+        <v>16865.351965313948</v>
       </c>
       <c r="V50">
-        <v>20624.843039694497</v>
+        <v>15573.223924445301</v>
       </c>
       <c r="W50">
-        <v>19194.092081708732</v>
+        <v>14281.095883576199</v>
       </c>
       <c r="X50">
-        <v>15355.27366536644</v>
+        <v>11424.876706861141</v>
       </c>
       <c r="Y50">
-        <v>11516.455249025057</v>
+        <v>8568.6575301460834</v>
       </c>
       <c r="Z50">
-        <v>7677.6368326836746</v>
+        <v>5712.4383534310255</v>
       </c>
       <c r="AA50">
-        <v>3838.8184163413825</v>
+        <v>2856.219176715058</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -5885,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>22</v>
       </c>
@@ -5995,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>22</v>
       </c>
@@ -6105,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>22</v>
       </c>
@@ -6215,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>22</v>
       </c>
@@ -6325,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>22</v>
       </c>
@@ -6435,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>22</v>
       </c>
@@ -6551,7 +6587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6561,12 +6597,12 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="23.3984375" customWidth="1"/>
+    <col min="1" max="4" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6580,7 +6616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -6597,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -6614,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6631,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6648,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -6665,24 +6701,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="8">
         <f>SUMIFS(INDEX('BDEQ - Combined'!$C$3:$AJ$56,,MATCH(About!$A$28,'BDEQ - Combined'!$C$2:$AJ$2,0)),'BDEQ - Combined'!$A$3:$A$56,SYDEC!B$1,'BDEQ - Combined'!$B$3:$B$56,SYDEC!$A7)</f>
-        <v>37.032259419234492</v>
+        <v>34.692241132660229</v>
       </c>
       <c r="C7" s="8">
         <f>SUMIFS(INDEX('BDEQ - Combined'!$C$3:$AJ$56,,MATCH(About!$A$28,'BDEQ - Combined'!$C$2:$AJ$2,0)),'BDEQ - Combined'!$A$3:$A$56,SYDEC!C$1,'BDEQ - Combined'!$B$3:$B$56,SYDEC!$A7)</f>
-        <v>75.186708517890111</v>
+        <v>70.435762299638327</v>
       </c>
       <c r="D7" s="8">
         <f>SUMIFS(INDEX('BDEQ - Combined'!$C$3:$AJ$56,,MATCH(About!$A$28,'BDEQ - Combined'!$C$2:$AJ$2,0)),'BDEQ - Combined'!$A$3:$A$56,SYDEC!D$1,'BDEQ - Combined'!$B$3:$B$56,SYDEC!$A7)</f>
-        <v>336.65690381133118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>315.38401029695251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -6699,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -6716,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -6733,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -6747,10 +6783,10 @@
       </c>
       <c r="D11" s="8">
         <f>SUMIFS(INDEX('BDEQ - Combined'!$C$3:$AJ$56,,MATCH(About!$A$28,'BDEQ - Combined'!$C$2:$AJ$2,0)),'BDEQ - Combined'!$A$3:$A$56,SYDEC!D$1,'BDEQ - Combined'!$B$3:$B$56,SYDEC!$A11)</f>
-        <v>20372.361501590603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>19247.058613296758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -6767,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6784,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -6801,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -6818,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -6835,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
